--- a/Assets/Data/Excel/MasterItem.xlsx
+++ b/Assets/Data/Excel/MasterItem.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_VincentGame\HorrorGame\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_VincentGame\HorrorGame\Assets\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9F73BE-ED0A-45B2-B45F-A8648C5B1685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC5712A-21A3-4DE7-B9CB-9340B64920B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{CE5CDD7E-8CFD-476C-AB84-63CE99224655}"/>
   </bookViews>
   <sheets>
-    <sheet name="ItemList" sheetId="1" r:id="rId1"/>
+    <sheet name="Entities" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -421,7 +421,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Assets/Data/Excel/MasterItem.xlsx
+++ b/Assets/Data/Excel/MasterItem.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_VincentGame\HorrorGame\Assets\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC5712A-21A3-4DE7-B9CB-9340B64920B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D6B0E9-BC9D-4629-9C79-971EE52C44E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{CE5CDD7E-8CFD-476C-AB84-63CE99224655}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -67,13 +67,26 @@
   </si>
   <si>
     <t>This is item_4</t>
+  </si>
+  <si>
+    <t>itemType</t>
+  </si>
+  <si>
+    <t>itemType is an enum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,15 +95,20 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -98,15 +116,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -418,29 +454,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E91137-7BD2-48ED-A93D-3ECC6F638E0D}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -448,10 +494,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -459,10 +508,13 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -470,10 +522,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -481,6 +536,9 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Assets/Data/Excel/MasterItem.xlsx
+++ b/Assets/Data/Excel/MasterItem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_VincentGame\HorrorGame\Assets\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D6B0E9-BC9D-4629-9C79-971EE52C44E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A5016A-210F-473D-B104-A7EC48193A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{CE5CDD7E-8CFD-476C-AB84-63CE99224655}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Assets/Data/Excel/MasterItem.xlsx
+++ b/Assets/Data/Excel/MasterItem.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_VincentGame\HorrorGame\Assets\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A5016A-210F-473D-B104-A7EC48193A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D287281-A5A3-464F-9660-9B0A581A7C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{CE5CDD7E-8CFD-476C-AB84-63CE99224655}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -42,9 +42,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>Item_1</t>
   </si>
   <si>
@@ -54,19 +51,7 @@
     <t>Item_3</t>
   </si>
   <si>
-    <t>This is item_1</t>
-  </si>
-  <si>
-    <t>This is item_2</t>
-  </si>
-  <si>
-    <t>This is item_3</t>
-  </si>
-  <si>
     <t>Item_4</t>
-  </si>
-  <si>
-    <t>This is item_4</t>
   </si>
   <si>
     <t>itemType</t>
@@ -457,7 +442,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,16 +459,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -491,13 +473,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -505,13 +484,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -519,13 +495,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -533,13 +506,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Excel/MasterItem.xlsx
+++ b/Assets/Data/Excel/MasterItem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_VincentGame\HorrorGame\Assets\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D287281-A5A3-464F-9660-9B0A581A7C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F756ABCA-6167-417A-A885-DEBAC3B2841F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{CE5CDD7E-8CFD-476C-AB84-63CE99224655}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -48,16 +48,28 @@
     <t>Item_2</t>
   </si>
   <si>
-    <t>Item_3</t>
-  </si>
-  <si>
-    <t>Item_4</t>
-  </si>
-  <si>
     <t>itemType</t>
   </si>
   <si>
     <t>itemType is an enum</t>
+  </si>
+  <si>
+    <t>Item_PuzzleBlock_A</t>
+  </si>
+  <si>
+    <t>Item_PuzzleBlock_B</t>
+  </si>
+  <si>
+    <t>Item_Key_A</t>
+  </si>
+  <si>
+    <t>Old Key</t>
+  </si>
+  <si>
+    <t>Puzzle Piece A</t>
+  </si>
+  <si>
+    <t>Puzzle Piece B</t>
   </si>
 </sst>
 </file>
@@ -439,17 +451,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E91137-7BD2-48ED-A93D-3ECC6F638E0D}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -459,13 +471,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -495,10 +507,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -506,10 +518,21 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Excel/MasterItem.xlsx
+++ b/Assets/Data/Excel/MasterItem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_VincentGame\HorrorGame\Assets\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F756ABCA-6167-417A-A885-DEBAC3B2841F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3EF106-63FB-410A-B577-AF80E4B9E882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{CE5CDD7E-8CFD-476C-AB84-63CE99224655}"/>
   </bookViews>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>Item_1</t>
   </si>
   <si>
@@ -63,20 +60,23 @@
     <t>Item_Key_A</t>
   </si>
   <si>
-    <t>Old Key</t>
-  </si>
-  <si>
-    <t>Puzzle Piece A</t>
-  </si>
-  <si>
-    <t>Puzzle Piece B</t>
+    <t>Item_Book_A</t>
+  </si>
+  <si>
+    <t>Item_Book_B</t>
+  </si>
+  <si>
+    <t>Item_Book_C</t>
+  </si>
+  <si>
+    <t>key</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,8 +91,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,6 +116,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -129,15 +153,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
@@ -451,18 +481,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E91137-7BD2-48ED-A93D-3ECC6F638E0D}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -471,71 +503,105 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" s="3">
+        <v>10100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" s="3">
+        <v>10101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
+      <c r="C9" s="3">
+        <v>10303</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Data/Excel/MasterItem.xlsx
+++ b/Assets/Data/Excel/MasterItem.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_VincentGame\HorrorGame\Assets\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3EF106-63FB-410A-B577-AF80E4B9E882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B92306F-6E29-44BE-995F-14A136B98D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{CE5CDD7E-8CFD-476C-AB84-63CE99224655}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>key</t>
+  </si>
+  <si>
+    <t>Coin</t>
   </si>
 </sst>
 </file>
@@ -481,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E91137-7BD2-48ED-A93D-3ECC6F638E0D}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,6 +603,17 @@
         <v>10303</v>
       </c>
     </row>
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3">
+        <v>10304</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Assets/Data/Excel/MasterItem.xlsx
+++ b/Assets/Data/Excel/MasterItem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_VincentGame\HorrorGame\Assets\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B92306F-6E29-44BE-995F-14A136B98D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518FB332-5C36-4807-814B-AA6EA5BAE855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{CE5CDD7E-8CFD-476C-AB84-63CE99224655}"/>
   </bookViews>
@@ -34,45 +34,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>Item_1</t>
-  </si>
-  <si>
-    <t>Item_2</t>
-  </si>
-  <si>
-    <t>itemType</t>
-  </si>
-  <si>
     <t>itemType is an enum</t>
   </si>
   <si>
-    <t>Item_PuzzleBlock_A</t>
-  </si>
-  <si>
-    <t>Item_PuzzleBlock_B</t>
-  </si>
-  <si>
-    <t>Item_Key_A</t>
-  </si>
-  <si>
-    <t>Item_Book_A</t>
-  </si>
-  <si>
-    <t>Item_Book_B</t>
-  </si>
-  <si>
-    <t>Item_Book_C</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
     <t>Coin</t>
+  </si>
+  <si>
+    <t>Item 1</t>
+  </si>
+  <si>
+    <t>Item 2</t>
+  </si>
+  <si>
+    <t>Puzzle Piece A</t>
+  </si>
+  <si>
+    <t>Puzzle Piece B</t>
+  </si>
+  <si>
+    <t>Old Key</t>
+  </si>
+  <si>
+    <t>Book A</t>
+  </si>
+  <si>
+    <t>Book B</t>
+  </si>
+  <si>
+    <t>Book C</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -487,12 +484,12 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" customWidth="1"/>
     <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.44140625" bestFit="1" customWidth="1"/>
@@ -506,112 +503,82 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>10000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>10001</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2">
-        <v>10001</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>10100</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3">
-        <v>10100</v>
-      </c>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>10101</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3">
-        <v>10101</v>
-      </c>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>10201</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2">
-        <v>10201</v>
-      </c>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>10301</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3">
-        <v>10301</v>
-      </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>10302</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="3">
-        <v>10302</v>
-      </c>
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>10303</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="3">
-        <v>10303</v>
-      </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>10304</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3">
-        <v>10304</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Excel/MasterItem.xlsx
+++ b/Assets/Data/Excel/MasterItem.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_VincentGame\HorrorGame\Assets\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518FB332-5C36-4807-814B-AA6EA5BAE855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F07275-DEB3-408B-95C6-33C7B140FBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{CE5CDD7E-8CFD-476C-AB84-63CE99224655}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
+    <sheet name="Notes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -42,9 +43,6 @@
     <t>itemType is an enum</t>
   </si>
   <si>
-    <t>Coin</t>
-  </si>
-  <si>
     <t>Item 1</t>
   </si>
   <si>
@@ -70,6 +68,57 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>assetAddress</t>
+  </si>
+  <si>
+    <t>AssetAddress.CubeBlue_Pickupable</t>
+  </si>
+  <si>
+    <t>AssetAddress.CubeRed_Pickupable</t>
+  </si>
+  <si>
+    <t>AssetAddress.PuzzleBlock_A_Pickupable</t>
+  </si>
+  <si>
+    <t>AssetAddress.PuzzleBlock_B_Pickupable</t>
+  </si>
+  <si>
+    <t>AssetAddress.Key_A_Pickupable</t>
+  </si>
+  <si>
+    <t>AssetAddress.Book_A_Pickupable</t>
+  </si>
+  <si>
+    <t>_10000_Item_1</t>
+  </si>
+  <si>
+    <t>_10001_Item_2</t>
+  </si>
+  <si>
+    <t>_10100_PuzzleBlock_A</t>
+  </si>
+  <si>
+    <t>_10101_PuzzleBlock_B</t>
+  </si>
+  <si>
+    <t>_10201_Key_A</t>
+  </si>
+  <si>
+    <t>_10301_Book_A</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>_10302_Book_B</t>
+  </si>
+  <si>
+    <t>_10302_Book_C</t>
+  </si>
+  <si>
+    <t>title is not being used since it will get localized in the MasterLocalization</t>
   </si>
 </sst>
 </file>
@@ -484,14 +533,14 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.21875" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="39.109375" customWidth="1"/>
     <col min="4" max="4" width="42.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39.77734375" bestFit="1" customWidth="1"/>
@@ -503,7 +552,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -514,7 +569,13 @@
         <v>10000</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -522,7 +583,13 @@
         <v>10001</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -530,7 +597,13 @@
         <v>10100</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -538,7 +611,13 @@
         <v>10101</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -546,7 +625,13 @@
         <v>10201</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -554,7 +639,13 @@
         <v>10301</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -562,7 +653,10 @@
         <v>10302</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -570,19 +664,41 @@
         <v>10303</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>10304</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
+        <v>26</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3A6AF7-97E3-40B6-BC49-702B421C3111}">
+  <dimension ref="B2:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/Data/Excel/MasterItem.xlsx
+++ b/Assets/Data/Excel/MasterItem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_VincentGame\HorrorGame\Assets\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F07275-DEB3-408B-95C6-33C7B140FBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BB5BAF-A4ED-436C-B1CF-FB1345ABC78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{CE5CDD7E-8CFD-476C-AB84-63CE99224655}"/>
   </bookViews>
@@ -533,7 +533,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Assets/Data/Excel/MasterItem.xlsx
+++ b/Assets/Data/Excel/MasterItem.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_VincentGame\HorrorGame\Assets\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BB5BAF-A4ED-436C-B1CF-FB1345ABC78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9D52C3-FB38-4A56-B11C-76A0B4C097A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{CE5CDD7E-8CFD-476C-AB84-63CE99224655}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -91,12 +91,6 @@
     <t>AssetAddress.Book_A_Pickupable</t>
   </si>
   <si>
-    <t>_10000_Item_1</t>
-  </si>
-  <si>
-    <t>_10001_Item_2</t>
-  </si>
-  <si>
     <t>_10100_PuzzleBlock_A</t>
   </si>
   <si>
@@ -119,6 +113,18 @@
   </si>
   <si>
     <t>title is not being used since it will get localized in the MasterLocalization</t>
+  </si>
+  <si>
+    <t>_None</t>
+  </si>
+  <si>
+    <t>_10001_Item_1</t>
+  </si>
+  <si>
+    <t>_10002_Item_2</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -533,7 +539,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,7 +564,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -569,13 +575,10 @@
         <v>10000</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -583,94 +586,107 @@
         <v>10001</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>10002</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>10100</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
+        <v>10100</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>10101</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>10201</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>10301</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>10302</v>
+        <v>10301</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
+        <v>10302</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>10303</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -689,7 +705,7 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
